--- a/roundtrip.xlsx
+++ b/roundtrip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD328"/>
+  <dimension ref="A1:AF328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,16 @@
           <t>ISO 21930 required information</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Indent</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,6 +670,16 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>processDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -744,6 +764,16 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>processDataSet.@version</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -820,6 +850,16 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>processDataSet.@epd2:epd-version</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -908,6 +948,16 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>processDataSet.@locations</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -992,6 +1042,16 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>processDataSet.@metaDataOnly</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1072,6 +1132,16 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1152,6 +1222,16 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1261,6 +1341,16 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.UUID</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1381,6 +1471,16 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.name</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1477,6 +1577,16 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.name.baseName</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1569,6 +1679,16 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.synonyms</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1661,6 +1781,16 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.synonyms.functionalUnitFlowProperties</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1741,6 +1871,16 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.other</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1855,6 +1995,16 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1944,6 +2094,16 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation.classification</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2033,6 +2193,16 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation.classification.@name</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2122,6 +2292,16 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation.classification.@classes</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2211,6 +2391,16 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation.classification.class</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2300,6 +2490,16 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation.classification.class.@level</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2390,6 +2590,16 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.classificationInformation.classification.class.@classId</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2528,6 +2738,16 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.generalComment</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2652,6 +2872,16 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.referenceToExternalDocumentation</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2736,6 +2966,16 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.other</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2820,6 +3060,16 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.other.epd24:referenceServiceLife</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2900,6 +3150,16 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.other.epd24:referenceServiceLife.@epd24:years</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2980,6 +3240,16 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:useConditionFactor</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3060,6 +3330,16 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>processDataSet.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:useConditionFactor.@epd24:factorCategory</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -3096,6 +3376,16 @@
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3136,6 +3426,16 @@
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -3176,6 +3476,16 @@
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3216,6 +3526,16 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -3256,6 +3576,16 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -3296,6 +3626,16 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -3336,6 +3676,16 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -3376,6 +3726,16 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -3412,6 +3772,16 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3492,6 +3862,16 @@
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:useConditionFactor.@epd24:objectSpecificGrade</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -3528,6 +3908,16 @@
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -3568,6 +3958,16 @@
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -3608,6 +4008,16 @@
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -3648,6 +4058,16 @@
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3688,6 +4108,16 @@
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3728,6 +4158,16 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3768,6 +4208,16 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3804,6 +4254,16 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3884,6 +4344,16 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:useConditionFactor.@epd24:referenceGrade</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3920,6 +4390,16 @@
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3960,6 +4440,16 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -4000,6 +4490,16 @@
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -4040,6 +4540,16 @@
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -4080,6 +4590,16 @@
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -4120,6 +4640,16 @@
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -4160,6 +4690,16 @@
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -4196,6 +4736,16 @@
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4280,6 +4830,16 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:useConditionFactor.@epd24:factor</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4360,6 +4920,16 @@
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:comment</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4440,6 +5010,16 @@
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:referenceToStandard</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4520,6 +5100,16 @@
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:referenceToUseConditionsDocumentation</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4600,6 +5190,16 @@
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:referenceServiceLife.epd24:comment</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4684,6 +5284,16 @@
       </c>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4764,6 +5374,16 @@
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.@epd24:years</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4840,6 +5460,16 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:useConditionFactor</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4920,6 +5550,16 @@
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:useConditionFactor.@epd24:factorCategory</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4956,6 +5596,16 @@
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4996,6 +5646,16 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -5036,6 +5696,16 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -5076,6 +5746,16 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -5116,6 +5796,16 @@
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -5156,6 +5846,16 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -5196,6 +5896,16 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -5236,6 +5946,16 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -5272,6 +5992,16 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5352,6 +6082,16 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:useConditionFactor.@epd24:objectSpecificGrade</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -5388,6 +6128,16 @@
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -5428,6 +6178,16 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -5468,6 +6228,16 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -5508,6 +6278,16 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -5548,6 +6328,16 @@
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -5588,6 +6378,16 @@
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -5628,6 +6428,16 @@
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -5664,6 +6474,16 @@
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5744,6 +6564,16 @@
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:useConditionFactor.@epd24:referenceGrade</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -5780,6 +6610,16 @@
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -5820,6 +6660,16 @@
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -5860,6 +6710,16 @@
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -5900,6 +6760,16 @@
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -5940,6 +6810,16 @@
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -5980,6 +6860,16 @@
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -6020,6 +6910,16 @@
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -6056,6 +6956,16 @@
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6136,6 +7046,16 @@
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:useConditionFactor.@epd24:factor</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6216,6 +7136,16 @@
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:comment</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6296,6 +7226,16 @@
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:referenceToStandard</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6376,6 +7316,16 @@
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:referenceToUseConditionsDocumentation</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6456,6 +7406,16 @@
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:estimatedServiceLife.epd24:comment</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6532,6 +7492,16 @@
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:productIds</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6616,6 +7586,16 @@
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:productIds.epd24:productId</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6700,6 +7680,16 @@
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:productIds.epd24:productId.@epd24:type</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6805,6 +7795,16 @@
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:safetyMargins</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6889,6 +7889,16 @@
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:safetyMargins.epd:margins</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6994,6 +8004,16 @@
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:safetyMargins.epd:margins.epd:description</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7098,6 +8118,16 @@
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
       <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:scenarios</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7202,6 +8232,16 @@
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
       <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:scenarios.epd:scenario</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7310,6 +8350,16 @@
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
       <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:scenarios.epd:scenario.@epd:name</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7404,6 +8454,16 @@
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
       <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:scenarios.epd:scenario.@epd:default</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7492,6 +8552,16 @@
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:scenarios.epd:scenario.@epd:group</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7604,6 +8674,16 @@
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
       <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:scenarios.epd:scenario.epd:description</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7692,6 +8772,16 @@
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr"/>
       <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:modules</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7780,6 +8870,16 @@
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
       <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:modules.epd:module</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7868,6 +8968,16 @@
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
       <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:modules.epd:module.@epd:name</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7956,6 +9066,16 @@
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd:modules.epd:module.@epd:productsystem-id</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8072,6 +9192,16 @@
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
       <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8152,6 +9282,16 @@
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
       <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8237,6 +9377,16 @@
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
       <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8319,6 +9469,16 @@
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
       <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8399,6 +9559,16 @@
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc.@epd2:value</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8479,6 +9649,16 @@
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="inlineStr"/>
       <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc.@epd2:lowerValue</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8559,6 +9739,16 @@
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
       <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc.@epd2:upperValue</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8640,6 +9830,16 @@
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
       <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8720,6 +9920,16 @@
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
       <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass.@epd2:value</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8800,6 +10010,16 @@
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass.@epd2:lowerValue</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8880,6 +10100,16 @@
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
       <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass.@epd2:upperValue</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8960,6 +10190,16 @@
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
       <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:comment</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9040,6 +10280,16 @@
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
       <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:material_|_epd2:substance</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9124,6 +10374,16 @@
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
       <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9205,6 +10465,16 @@
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9285,6 +10555,16 @@
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
       <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc.@epd2:value</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9365,6 +10645,16 @@
       <c r="AB129" t="inlineStr"/>
       <c r="AC129" t="inlineStr"/>
       <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc.@epd2:lowerValue</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9445,6 +10735,16 @@
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
       <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:weightPerc.@epd2:upperValue</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9526,6 +10826,16 @@
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
       <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9606,6 +10916,16 @@
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass.@epd2:value</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9686,6 +11006,16 @@
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
       <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass.@epd2:lowerValue</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9766,6 +11096,16 @@
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
       <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:mass.@epd2:upperValue</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9846,6 +11186,16 @@
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
       <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:CASNumber</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9926,6 +11276,16 @@
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
       <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:ECNumber</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10006,6 +11366,16 @@
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:hazardCode</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10082,6 +11452,16 @@
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
       <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:renewable</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10158,6 +11538,16 @@
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
       <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:recycled</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10234,6 +11624,16 @@
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
       <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:recyclable</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10314,6 +11714,16 @@
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
       <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.@epd2:packaging</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10386,6 +11796,16 @@
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd2:contentDeclaration.epd2:component.epd2:name.epd2:comment</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10466,6 +11886,16 @@
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
       <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:SVHC</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10550,6 +11980,16 @@
       <c r="AB144" t="inlineStr"/>
       <c r="AC144" t="inlineStr"/>
       <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10630,6 +12070,16 @@
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:useStageScenarioData</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10714,6 +12164,16 @@
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
       <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:useStageScenarioData.@epd24:scenario</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10806,6 +12266,16 @@
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
       <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:useStageScenarioData.epd24:soilAndWaterImpacts</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10886,6 +12356,16 @@
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
       <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:useStageScenarioData.epd24:soilAndWaterImpacts.epd24:soilAndWaterImpactsDescription</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10984,6 +12464,16 @@
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
       <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11064,6 +12554,16 @@
       <c r="AB150" t="inlineStr"/>
       <c r="AC150" t="inlineStr"/>
       <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.@epd24:scenario</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11144,6 +12644,16 @@
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
       <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:collection</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11224,6 +12734,16 @@
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:collection.@epd24:separate</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11304,6 +12824,16 @@
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
       <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:collection.@epd24:withMixedWaste</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11384,6 +12914,16 @@
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
       <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:recovery</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11464,6 +13004,16 @@
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
       <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:recovery.@epd24:reuse</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11544,6 +13094,16 @@
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
       <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:recovery.@epd24:recycling</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11624,6 +13184,16 @@
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
       <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:recovery.@epd24:energyRecovery</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11700,6 +13270,16 @@
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="inlineStr"/>
       <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:disposal</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11784,6 +13364,16 @@
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
       <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>nan.processInformation.dataSetInformation.other.epd24:scenarioData.epd24:eolScenarioData.epd24:disposal.@epd24:finalDeposition</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11868,6 +13458,16 @@
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
       <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>nan.processInformation.quantitativeReference</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11952,6 +13552,16 @@
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
       <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>nan.processInformation.quantitativeReference.other.@type</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -11988,6 +13598,16 @@
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -12024,6 +13644,16 @@
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
       <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -12060,6 +13690,16 @@
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
       <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -12096,6 +13736,16 @@
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
       <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12209,6 +13859,16 @@
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
       <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>nan.processInformation.quantitativeReference.referenceToReferenceFlow</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12314,6 +13974,16 @@
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
       <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>nan.processInformation.quantitativeReference.functionalUnitOrOther</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12386,6 +14056,16 @@
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
       <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>nan.processInformation.quantitativeReference.other</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12466,6 +14146,16 @@
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12570,6 +14260,16 @@
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time.referenceYear</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12682,6 +14382,16 @@
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time.dataSetValidUntil</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12783,6 +14493,16 @@
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time.timeRepresentativenessDescription</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12855,6 +14575,16 @@
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
       <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time.other</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12967,6 +14697,16 @@
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
       <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time.other.epd2:publicationDateOfEPD</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13047,6 +14787,16 @@
       <c r="AB175" t="inlineStr"/>
       <c r="AC175" t="inlineStr"/>
       <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>nan.processInformation.time.other.epd2:expirationDateOfEPD</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13127,6 +14877,16 @@
       <c r="AB176" t="inlineStr"/>
       <c r="AC176" t="inlineStr"/>
       <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>nan.processInformation.geography</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13208,6 +14968,16 @@
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
       <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>nan.processInformation.geography.locationOfOperationSupplyOrProduction</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13325,6 +15095,16 @@
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
       <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>nan.processInformation.geography.locationOfOperationSupplyOrProduction.@location</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13434,6 +15214,16 @@
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
       <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>nan.processInformation.geography.locationOfOperationSupplyOrProduction.descriptionOfRestrictions</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13510,6 +15300,16 @@
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
       <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>nan.processInformation.geography.other</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13590,6 +15390,16 @@
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
       <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>nan.processInformation.technology</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13725,6 +15535,16 @@
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
       <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>nan.processInformation.technology.technologyDescriptionAndIncludedProcesses</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13851,6 +15671,16 @@
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
       <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>nan.processInformation.technology.technologicalApplicability</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13953,6 +15783,16 @@
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
       <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>nan.processInformation.technology.referenceToTechnologyPictogramme</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14074,6 +15914,16 @@
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
       <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>nan.processInformation.technology.referenceToTechnologyFlowDiagrammOrPicture</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14146,6 +15996,16 @@
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
       <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>nan.processInformation.technology.other</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14226,6 +16086,16 @@
       <c r="AB187" t="inlineStr"/>
       <c r="AC187" t="inlineStr"/>
       <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14302,6 +16172,16 @@
       <c r="AB188" t="inlineStr"/>
       <c r="AC188" t="inlineStr"/>
       <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14364,7 +16244,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>For EPD datasets including generic ones, this value is always "EPD"</t>
+          <t xml:space="preserve">For EPD datasets including generic ones, this value is always "EPD" </t>
         </is>
       </c>
       <c r="P189" t="inlineStr"/>
@@ -14386,6 +16266,16 @@
       <c r="AB189" t="inlineStr"/>
       <c r="AC189" t="inlineStr"/>
       <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.typeOfDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14509,6 +16399,16 @@
       <c r="AB190" t="inlineStr"/>
       <c r="AC190" t="inlineStr"/>
       <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.referenceToLCAMethodDetails</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14619,6 +16519,16 @@
       <c r="AB191" t="inlineStr"/>
       <c r="AC191" t="inlineStr"/>
       <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14742,6 +16652,16 @@
       <c r="AB192" t="inlineStr"/>
       <c r="AC192" t="inlineStr"/>
       <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd:subType</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -14782,6 +16702,16 @@
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="inlineStr"/>
       <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -14822,6 +16752,16 @@
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="inlineStr"/>
       <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -14862,6 +16802,16 @@
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
       <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -14902,6 +16852,16 @@
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
       <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14970,6 +16930,16 @@
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
       <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:pcrCompliance</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15050,6 +17020,16 @@
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="inlineStr"/>
       <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:pcrCompliance.@epd24:allocation</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15140,6 +17120,16 @@
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="inlineStr"/>
       <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:pcrCompliance.@epd24:cutOffRules</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15232,6 +17222,16 @@
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
       <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:pcrCompliance.@epd24:upstreamDataDeviatingFromAllocationPrinciples</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15345,6 +17345,16 @@
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
       <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15425,6 +17435,16 @@
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="inlineStr"/>
       <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:manufacturerVariability</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15509,6 +17529,16 @@
       <c r="AB203" t="inlineStr"/>
       <c r="AC203" t="inlineStr"/>
       <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:manufacturerVariability.@epd24:type</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -15549,6 +17579,16 @@
       <c r="AB204" t="inlineStr"/>
       <c r="AC204" t="inlineStr"/>
       <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -15589,6 +17629,16 @@
       <c r="AB205" t="inlineStr"/>
       <c r="AC205" t="inlineStr"/>
       <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15673,6 +17723,16 @@
       <c r="AB206" t="inlineStr"/>
       <c r="AC206" t="inlineStr"/>
       <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:manufacturerVariability.@epd24:variation</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15757,6 +17817,16 @@
       <c r="AB207" t="inlineStr"/>
       <c r="AC207" t="inlineStr"/>
       <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:manufacturerVariability.@epd24:variationRange</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -15793,6 +17863,16 @@
       <c r="AB208" t="inlineStr"/>
       <c r="AC208" t="inlineStr"/>
       <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -15833,6 +17913,16 @@
       <c r="AB209" t="inlineStr"/>
       <c r="AC209" t="inlineStr"/>
       <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -15873,6 +17963,16 @@
       <c r="AB210" t="inlineStr"/>
       <c r="AC210" t="inlineStr"/>
       <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -15913,6 +18013,16 @@
       <c r="AB211" t="inlineStr"/>
       <c r="AC211" t="inlineStr"/>
       <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -15953,6 +18063,16 @@
       <c r="AB212" t="inlineStr"/>
       <c r="AC212" t="inlineStr"/>
       <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -15993,6 +18113,16 @@
       <c r="AB213" t="inlineStr"/>
       <c r="AC213" t="inlineStr"/>
       <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -16029,6 +18159,16 @@
       <c r="AB214" t="inlineStr"/>
       <c r="AC214" t="inlineStr"/>
       <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -16109,6 +18249,16 @@
       <c r="AB215" t="inlineStr"/>
       <c r="AC215" t="inlineStr"/>
       <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:productVariability</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -16193,6 +18343,16 @@
       <c r="AB216" t="inlineStr"/>
       <c r="AC216" t="inlineStr"/>
       <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:productVariability.@epd24:type</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16237,6 +18397,16 @@
       <c r="AB217" t="inlineStr"/>
       <c r="AC217" t="inlineStr"/>
       <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16321,6 +18491,16 @@
       <c r="AB218" t="inlineStr"/>
       <c r="AC218" t="inlineStr"/>
       <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:productVariability.@epd24:variation</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16401,6 +18581,16 @@
       <c r="AB219" t="inlineStr"/>
       <c r="AC219" t="inlineStr"/>
       <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:productVariability.@epd24:variationRange</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -16437,6 +18627,16 @@
       <c r="AB220" t="inlineStr"/>
       <c r="AC220" t="inlineStr"/>
       <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -16477,6 +18677,16 @@
       <c r="AB221" t="inlineStr"/>
       <c r="AC221" t="inlineStr"/>
       <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -16517,6 +18727,16 @@
       <c r="AB222" t="inlineStr"/>
       <c r="AC222" t="inlineStr"/>
       <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -16557,6 +18777,16 @@
       <c r="AB223" t="inlineStr"/>
       <c r="AC223" t="inlineStr"/>
       <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -16597,6 +18827,16 @@
       <c r="AB224" t="inlineStr"/>
       <c r="AC224" t="inlineStr"/>
       <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -16637,6 +18877,16 @@
       <c r="AB225" t="inlineStr"/>
       <c r="AC225" t="inlineStr"/>
       <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -16673,6 +18923,16 @@
       <c r="AB226" t="inlineStr"/>
       <c r="AC226" t="inlineStr"/>
       <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16757,6 +19017,16 @@
       <c r="AB227" t="inlineStr"/>
       <c r="AC227" t="inlineStr"/>
       <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.LCIMethodAndAllocation.other.epd24:variability.epd24:variabilityDescription</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16837,6 +19107,16 @@
       <c r="AB228" t="inlineStr"/>
       <c r="AC228" t="inlineStr"/>
       <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16938,6 +19218,16 @@
       <c r="AB229" t="inlineStr"/>
       <c r="AC229" t="inlineStr"/>
       <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.referenceToDataHandlingPrinciples</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -17074,6 +19364,16 @@
       <c r="AB230" t="inlineStr"/>
       <c r="AC230" t="inlineStr"/>
       <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.referenceToDataSource</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17205,6 +19505,16 @@
       <c r="AB231" t="inlineStr"/>
       <c r="AC231" t="inlineStr"/>
       <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.useAdviceForDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -17281,6 +19591,16 @@
       <c r="AB232" t="inlineStr"/>
       <c r="AC232" t="inlineStr"/>
       <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17385,6 +19705,16 @@
       <c r="AB233" t="inlineStr"/>
       <c r="AC233" t="inlineStr"/>
       <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17485,6 +19815,16 @@
       <c r="AB234" t="inlineStr"/>
       <c r="AC234" t="inlineStr"/>
       <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -17585,6 +19925,16 @@
       <c r="AB235" t="inlineStr"/>
       <c r="AC235" t="inlineStr"/>
       <c r="AD235" t="inlineStr"/>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:contact</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -17689,6 +20039,16 @@
       <c r="AB236" t="inlineStr"/>
       <c r="AC236" t="inlineStr"/>
       <c r="AD236" t="inlineStr"/>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -17789,6 +20149,16 @@
       <c r="AB237" t="inlineStr"/>
       <c r="AC237" t="inlineStr"/>
       <c r="AD237" t="inlineStr"/>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites.epd24:site</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -17893,6 +20263,16 @@
       <c r="AB238" t="inlineStr"/>
       <c r="AC238" t="inlineStr"/>
       <c r="AD238" t="inlineStr"/>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites.epd24:site.epd24:name</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -17997,6 +20377,16 @@
       <c r="AB239" t="inlineStr"/>
       <c r="AC239" t="inlineStr"/>
       <c r="AD239" t="inlineStr"/>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites.epd24:site.epd24:facilityIdentifier</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -18101,6 +20491,16 @@
       <c r="AB240" t="inlineStr"/>
       <c r="AC240" t="inlineStr"/>
       <c r="AD240" t="inlineStr"/>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites.epd24:site.epd24:olc</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -18205,6 +20605,16 @@
       <c r="AB241" t="inlineStr"/>
       <c r="AC241" t="inlineStr"/>
       <c r="AD241" t="inlineStr"/>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites.epd24:site.epd24:geoCode</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -18310,6 +20720,16 @@
       <c r="AB242" t="inlineStr"/>
       <c r="AC242" t="inlineStr"/>
       <c r="AD242" t="inlineStr"/>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd24:manufacturers.epd24:manufacturer.epd24:sites.epd24:site.epd24:streetAddress</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -18410,6 +20830,16 @@
       <c r="AB243" t="inlineStr"/>
       <c r="AC243" t="inlineStr"/>
       <c r="AD243" t="inlineStr"/>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.dataSourcesTreatmentAndRepresentativeness.other.epd2:referenceToOriginalEPD</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -18502,6 +20932,16 @@
       <c r="AB244" t="inlineStr"/>
       <c r="AC244" t="inlineStr"/>
       <c r="AD244" t="inlineStr"/>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -18586,6 +21026,16 @@
       <c r="AB245" t="inlineStr"/>
       <c r="AC245" t="inlineStr"/>
       <c r="AD245" t="inlineStr"/>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation.review</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -18723,6 +21173,16 @@
       <c r="AB246" t="inlineStr"/>
       <c r="AC246" t="inlineStr"/>
       <c r="AD246" t="inlineStr"/>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation.review.@type</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -18763,6 +21223,16 @@
       <c r="AB247" t="inlineStr"/>
       <c r="AC247" t="inlineStr"/>
       <c r="AD247" t="inlineStr"/>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -18803,6 +21273,16 @@
       <c r="AB248" t="inlineStr"/>
       <c r="AC248" t="inlineStr"/>
       <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -18843,6 +21323,16 @@
       <c r="AB249" t="inlineStr"/>
       <c r="AC249" t="inlineStr"/>
       <c r="AD249" t="inlineStr"/>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -18883,6 +21373,16 @@
       <c r="AB250" t="inlineStr"/>
       <c r="AC250" t="inlineStr"/>
       <c r="AD250" t="inlineStr"/>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -18923,6 +21423,16 @@
       <c r="AB251" t="inlineStr"/>
       <c r="AC251" t="inlineStr"/>
       <c r="AD251" t="inlineStr"/>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -18963,6 +21473,16 @@
       <c r="AB252" t="inlineStr"/>
       <c r="AC252" t="inlineStr"/>
       <c r="AD252" t="inlineStr"/>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19079,6 +21599,16 @@
       <c r="AB253" t="inlineStr"/>
       <c r="AC253" t="inlineStr"/>
       <c r="AD253" t="inlineStr"/>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation.review.reviewDetails</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -19214,6 +21744,16 @@
       </c>
       <c r="AC254" t="inlineStr"/>
       <c r="AD254" t="inlineStr"/>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation.review.referenceToNameOfReviewerAndInstitution</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -19318,6 +21858,16 @@
       <c r="AB255" t="inlineStr"/>
       <c r="AC255" t="inlineStr"/>
       <c r="AD255" t="inlineStr"/>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation.review.referenceToCompleteReviewReport</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -19394,6 +21944,16 @@
       <c r="AB256" t="inlineStr"/>
       <c r="AC256" t="inlineStr"/>
       <c r="AD256" t="inlineStr"/>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.validation.other</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -19478,6 +22038,16 @@
       <c r="AB257" t="inlineStr"/>
       <c r="AC257" t="inlineStr"/>
       <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.complianceDeclarations</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -19554,6 +22124,16 @@
       <c r="AB258" t="inlineStr"/>
       <c r="AC258" t="inlineStr"/>
       <c r="AD258" t="inlineStr"/>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.complianceDeclarations.compliance</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -19683,6 +22263,16 @@
       <c r="AB259" t="inlineStr"/>
       <c r="AC259" t="inlineStr"/>
       <c r="AD259" t="inlineStr"/>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.complianceDeclarations.compliance.referenceToComplianceSystem</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -19755,6 +22345,16 @@
       <c r="AB260" t="inlineStr"/>
       <c r="AC260" t="inlineStr"/>
       <c r="AD260" t="inlineStr"/>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>nan.modellingAndValidation.complianceDeclarations.other</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -19843,6 +22443,16 @@
       <c r="AB261" t="inlineStr"/>
       <c r="AC261" t="inlineStr"/>
       <c r="AD261" t="inlineStr"/>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -19919,6 +22529,16 @@
       <c r="AB262" t="inlineStr"/>
       <c r="AC262" t="inlineStr"/>
       <c r="AD262" t="inlineStr"/>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.commissionerAndGoal</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -20035,6 +22655,16 @@
       <c r="AB263" t="inlineStr"/>
       <c r="AC263" t="inlineStr"/>
       <c r="AD263" t="inlineStr"/>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.commissionerAndGoal.referenceToCommissioner</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20144,6 +22774,16 @@
       <c r="AB264" t="inlineStr"/>
       <c r="AC264" t="inlineStr"/>
       <c r="AD264" t="inlineStr"/>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.commissionerAndGoal.project</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -20241,6 +22881,16 @@
       <c r="AB265" t="inlineStr"/>
       <c r="AC265" t="inlineStr"/>
       <c r="AD265" t="inlineStr"/>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.commissionerAndGoal.intendedApplications</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -20313,6 +22963,16 @@
       <c r="AB266" t="inlineStr"/>
       <c r="AC266" t="inlineStr"/>
       <c r="AD266" t="inlineStr"/>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.commissionerAndGoal.other</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -20389,6 +23049,16 @@
       <c r="AB267" t="inlineStr"/>
       <c r="AC267" t="inlineStr"/>
       <c r="AD267" t="inlineStr"/>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataGenerator</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -20494,6 +23164,16 @@
       <c r="AB268" t="inlineStr"/>
       <c r="AC268" t="inlineStr"/>
       <c r="AD268" t="inlineStr"/>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataGenerator.referenceToPersonOrEntityGeneratingTheDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -20566,6 +23246,16 @@
       <c r="AB269" t="inlineStr"/>
       <c r="AC269" t="inlineStr"/>
       <c r="AD269" t="inlineStr"/>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataGenerator.other</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -20646,6 +23336,16 @@
       <c r="AB270" t="inlineStr"/>
       <c r="AC270" t="inlineStr"/>
       <c r="AD270" t="inlineStr"/>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataEntryBy</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -20748,6 +23448,16 @@
       <c r="AB271" t="inlineStr"/>
       <c r="AC271" t="inlineStr"/>
       <c r="AD271" t="inlineStr"/>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataEntryBy.timeStamp</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -20849,6 +23559,16 @@
       <c r="AB272" t="inlineStr"/>
       <c r="AC272" t="inlineStr"/>
       <c r="AD272" t="inlineStr"/>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataEntryBy.referenceToDataSetFormat</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -20889,6 +23609,16 @@
       <c r="AB273" t="inlineStr"/>
       <c r="AC273" t="inlineStr"/>
       <c r="AD273" t="inlineStr"/>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -20933,6 +23663,16 @@
       <c r="AB274" t="inlineStr"/>
       <c r="AC274" t="inlineStr"/>
       <c r="AD274" t="inlineStr"/>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -21005,6 +23745,16 @@
       <c r="AB275" t="inlineStr"/>
       <c r="AC275" t="inlineStr"/>
       <c r="AD275" t="inlineStr"/>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.dataEntryBy.other</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -21085,6 +23835,16 @@
       <c r="AB276" t="inlineStr"/>
       <c r="AC276" t="inlineStr"/>
       <c r="AD276" t="inlineStr"/>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -21186,6 +23946,16 @@
       <c r="AB277" t="inlineStr"/>
       <c r="AC277" t="inlineStr"/>
       <c r="AD277" t="inlineStr"/>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF277" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.dataSetVersion</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -21284,6 +24054,16 @@
       <c r="AB278" t="inlineStr"/>
       <c r="AC278" t="inlineStr"/>
       <c r="AD278" t="inlineStr"/>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF278" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.referenceToPrecedingDataSetVersion</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -21364,6 +24144,16 @@
       <c r="AB279" t="inlineStr"/>
       <c r="AC279" t="inlineStr"/>
       <c r="AD279" t="inlineStr"/>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.permanentDataSetURI</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -21464,6 +24254,16 @@
       <c r="AB280" t="inlineStr"/>
       <c r="AC280" t="inlineStr"/>
       <c r="AD280" t="inlineStr"/>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.dateOfLastRevision</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -21573,6 +24373,16 @@
       <c r="AB281" t="inlineStr"/>
       <c r="AC281" t="inlineStr"/>
       <c r="AD281" t="inlineStr"/>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.referenceToRegistrationAuthority</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -21688,6 +24498,16 @@
       <c r="AB282" t="inlineStr"/>
       <c r="AC282" t="inlineStr"/>
       <c r="AD282" t="inlineStr"/>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.registrationNumber</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -21792,6 +24612,16 @@
       <c r="AB283" t="inlineStr"/>
       <c r="AC283" t="inlineStr"/>
       <c r="AD283" t="inlineStr"/>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.referenceToOwnershipOfDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -21893,6 +24723,16 @@
       <c r="AB284" t="inlineStr"/>
       <c r="AC284" t="inlineStr"/>
       <c r="AD284" t="inlineStr"/>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.copyright</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -21997,6 +24837,16 @@
       <c r="AB285" t="inlineStr"/>
       <c r="AC285" t="inlineStr"/>
       <c r="AD285" t="inlineStr"/>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.licenseType</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -22037,6 +24887,16 @@
       <c r="AB286" t="inlineStr"/>
       <c r="AC286" t="inlineStr"/>
       <c r="AD286" t="inlineStr"/>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -22077,6 +24937,16 @@
       <c r="AB287" t="inlineStr"/>
       <c r="AC287" t="inlineStr"/>
       <c r="AD287" t="inlineStr"/>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -22117,6 +24987,16 @@
       <c r="AB288" t="inlineStr"/>
       <c r="AC288" t="inlineStr"/>
       <c r="AD288" t="inlineStr"/>
+      <c r="AE288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -22157,6 +25037,16 @@
       <c r="AB289" t="inlineStr"/>
       <c r="AC289" t="inlineStr"/>
       <c r="AD289" t="inlineStr"/>
+      <c r="AE289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -22197,6 +25087,16 @@
       <c r="AB290" t="inlineStr"/>
       <c r="AC290" t="inlineStr"/>
       <c r="AD290" t="inlineStr"/>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -22294,6 +25194,16 @@
       <c r="AB291" t="inlineStr"/>
       <c r="AC291" t="inlineStr"/>
       <c r="AD291" t="inlineStr"/>
+      <c r="AE291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.accessRestrictions</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -22366,6 +25276,16 @@
       <c r="AB292" t="inlineStr"/>
       <c r="AC292" t="inlineStr"/>
       <c r="AD292" t="inlineStr"/>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.other</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -22478,6 +25398,16 @@
       <c r="AB293" t="inlineStr"/>
       <c r="AC293" t="inlineStr"/>
       <c r="AD293" t="inlineStr"/>
+      <c r="AE293" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>nan.administrativeInformation.publicationAndOwnership.other.referenceToPublisher</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -22566,6 +25496,16 @@
       <c r="AB294" t="inlineStr"/>
       <c r="AC294" t="inlineStr"/>
       <c r="AD294" t="inlineStr"/>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>nan.exchanges</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -22642,6 +25582,16 @@
       <c r="AB295" t="inlineStr"/>
       <c r="AC295" t="inlineStr"/>
       <c r="AD295" t="inlineStr"/>
+      <c r="AE295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF295" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -22718,6 +25668,16 @@
       <c r="AB296" t="inlineStr"/>
       <c r="AC296" t="inlineStr"/>
       <c r="AD296" t="inlineStr"/>
+      <c r="AE296" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.@dataSetInternalID</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -22798,6 +25758,16 @@
       <c r="AB297" t="inlineStr"/>
       <c r="AC297" t="inlineStr"/>
       <c r="AD297" t="inlineStr"/>
+      <c r="AE297" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF297" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.referenceToFlowDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -22870,6 +25840,16 @@
       <c r="AB298" t="inlineStr"/>
       <c r="AC298" t="inlineStr"/>
       <c r="AD298" t="inlineStr"/>
+      <c r="AE298" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.functionType</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -22910,6 +25890,16 @@
       <c r="AB299" t="inlineStr"/>
       <c r="AC299" t="inlineStr"/>
       <c r="AD299" t="inlineStr"/>
+      <c r="AE299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -22950,6 +25940,16 @@
       <c r="AB300" t="inlineStr"/>
       <c r="AC300" t="inlineStr"/>
       <c r="AD300" t="inlineStr"/>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -22990,6 +25990,16 @@
       <c r="AB301" t="inlineStr"/>
       <c r="AC301" t="inlineStr"/>
       <c r="AD301" t="inlineStr"/>
+      <c r="AE301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -23070,6 +26080,16 @@
       <c r="AB302" t="inlineStr"/>
       <c r="AC302" t="inlineStr"/>
       <c r="AD302" t="inlineStr"/>
+      <c r="AE302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.exchangeDirection</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -23110,6 +26130,16 @@
       <c r="AB303" t="inlineStr"/>
       <c r="AC303" t="inlineStr"/>
       <c r="AD303" t="inlineStr"/>
+      <c r="AE303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -23150,6 +26180,16 @@
       <c r="AB304" t="inlineStr"/>
       <c r="AC304" t="inlineStr"/>
       <c r="AD304" t="inlineStr"/>
+      <c r="AE304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -23230,6 +26270,16 @@
       <c r="AB305" t="inlineStr"/>
       <c r="AC305" t="inlineStr"/>
       <c r="AD305" t="inlineStr"/>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.meanAmount</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -23318,6 +26368,16 @@
       <c r="AB306" t="inlineStr"/>
       <c r="AC306" t="inlineStr"/>
       <c r="AD306" t="inlineStr"/>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.generalComment</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -23390,6 +26450,16 @@
       <c r="AB307" t="inlineStr"/>
       <c r="AC307" t="inlineStr"/>
       <c r="AD307" t="inlineStr"/>
+      <c r="AE307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.other</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -23454,6 +26524,16 @@
       <c r="AB308" t="inlineStr"/>
       <c r="AC308" t="inlineStr"/>
       <c r="AD308" t="inlineStr"/>
+      <c r="AE308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -23550,6 +26630,16 @@
       <c r="AB309" t="inlineStr"/>
       <c r="AC309" t="inlineStr"/>
       <c r="AD309" t="inlineStr"/>
+      <c r="AE309" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.other.epd:amount</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -23658,6 +26748,16 @@
       <c r="AB310" t="inlineStr"/>
       <c r="AC310" t="inlineStr"/>
       <c r="AD310" t="inlineStr"/>
+      <c r="AE310" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.other.epd:amount.@epd:module</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -23746,6 +26846,16 @@
       <c r="AB311" t="inlineStr"/>
       <c r="AC311" t="inlineStr"/>
       <c r="AD311" t="inlineStr"/>
+      <c r="AE311" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.other.epd:amount.@epd:scenario</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -23838,6 +26948,16 @@
       <c r="AB312" t="inlineStr"/>
       <c r="AC312" t="inlineStr"/>
       <c r="AD312" t="inlineStr"/>
+      <c r="AE312" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>nan.exchanges.exchange.other.epd:referenceToUnitGroupDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -23927,6 +27047,16 @@
       <c r="AB313" t="inlineStr"/>
       <c r="AC313" t="inlineStr"/>
       <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -24003,6 +27133,16 @@
       <c r="AB314" t="inlineStr"/>
       <c r="AC314" t="inlineStr"/>
       <c r="AD314" t="inlineStr"/>
+      <c r="AE314" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -24103,6 +27243,16 @@
       <c r="AB315" t="inlineStr"/>
       <c r="AC315" t="inlineStr"/>
       <c r="AD315" t="inlineStr"/>
+      <c r="AE315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.referenceToLCIAMethodDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -24183,6 +27333,16 @@
       <c r="AB316" t="inlineStr"/>
       <c r="AC316" t="inlineStr"/>
       <c r="AD316" t="inlineStr"/>
+      <c r="AE316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.generalComment</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -24255,6 +27415,16 @@
       <c r="AB317" t="inlineStr"/>
       <c r="AC317" t="inlineStr"/>
       <c r="AD317" t="inlineStr"/>
+      <c r="AE317" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.other</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -24351,6 +27521,16 @@
       <c r="AB318" t="inlineStr"/>
       <c r="AC318" t="inlineStr"/>
       <c r="AD318" t="inlineStr"/>
+      <c r="AE318" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.other.epd:amount</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -24448,10 +27628,11 @@
       </c>
       <c r="Z319" t="inlineStr">
         <is>
-          <t>LCIA - Core env indicators
+          <t xml:space="preserve">LCIA - Core env indicators
 LCIA - add env indicators
 LCIA - ressource use parameters
-LCIA - waste categories</t>
+LCIA - waste categories
+</t>
         </is>
       </c>
       <c r="AA319" t="inlineStr">
@@ -24462,6 +27643,16 @@
       <c r="AB319" t="inlineStr"/>
       <c r="AC319" t="inlineStr"/>
       <c r="AD319" t="inlineStr"/>
+      <c r="AE319" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.other.epd:amount.@epd:module</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -24550,6 +27741,16 @@
       <c r="AB320" t="inlineStr"/>
       <c r="AC320" t="inlineStr"/>
       <c r="AD320" t="inlineStr"/>
+      <c r="AE320" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.other.epd:amount.@epd:scenario</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -24651,16 +27852,27 @@
       </c>
       <c r="Z321" t="inlineStr">
         <is>
-          <t>LCIA - Core env indicators
+          <t xml:space="preserve">LCIA - Core env indicators
 LCIA - add env indicators
 LCIA - ressource use parameters
-LCIA - waste categories</t>
+LCIA - waste categories
+</t>
         </is>
       </c>
       <c r="AA321" t="inlineStr"/>
       <c r="AB321" t="inlineStr"/>
       <c r="AC321" t="inlineStr"/>
       <c r="AD321" t="inlineStr"/>
+      <c r="AE321" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>nan.LCIAResults.LCIAResult.other.epd:referenceToUnitGroupDataSet</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -24717,6 +27929,16 @@
       <c r="AB322" t="inlineStr"/>
       <c r="AC322" t="inlineStr"/>
       <c r="AD322" t="inlineStr"/>
+      <c r="AE322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -24806,6 +28028,16 @@
       <c r="AB323" t="inlineStr"/>
       <c r="AC323" t="inlineStr"/>
       <c r="AD323" t="inlineStr"/>
+      <c r="AE323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -24866,6 +28098,16 @@
       <c r="AB324" t="inlineStr"/>
       <c r="AC324" t="inlineStr"/>
       <c r="AD324" t="inlineStr"/>
+      <c r="AE324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF324" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -24947,6 +28189,16 @@
       <c r="AB325" t="inlineStr"/>
       <c r="AC325" t="inlineStr"/>
       <c r="AD325" t="inlineStr"/>
+      <c r="AE325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF325" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -25029,6 +28281,16 @@
       <c r="AB326" t="inlineStr"/>
       <c r="AC326" t="inlineStr"/>
       <c r="AD326" t="inlineStr"/>
+      <c r="AE326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF326" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -25097,6 +28359,16 @@
       <c r="AB327" t="inlineStr"/>
       <c r="AC327" t="inlineStr"/>
       <c r="AD327" t="inlineStr"/>
+      <c r="AE327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF327" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -25169,6 +28441,16 @@
       <c r="AB328" t="inlineStr"/>
       <c r="AC328" t="inlineStr"/>
       <c r="AD328" t="inlineStr"/>
+      <c r="AE328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF328" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
